--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56610.72438816911</v>
+        <v>11264306.38109999</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56610.72438816911</v>
+        <v>11264306.38109999</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1037076601.373288</v>
+        <v>43845819.77181873</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9831.757660622077</v>
+        <v>1134418.667746951</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17850.6154968801</v>
+        <v>1984498.169971452</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25868.96828887941</v>
+        <v>2834577.672195954</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33911.10521304641</v>
+        <v>3684666.43965124</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41953.04328272279</v>
+        <v>4534745.941875742</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49994.98135239916</v>
+        <v>5384825.444100243</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>58036.70767343474</v>
+        <v>6234904.946324741</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66078.75718976423</v>
+        <v>7084984.448549239</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74120.69525944057</v>
+        <v>7935063.950773737</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82162.63332911691</v>
+        <v>8785143.452998236</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90204.57139879327</v>
+        <v>9635222.955222739</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98246.50946847076</v>
+        <v>10485302.45744725</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>106288.4475381467</v>
+        <v>11335381.95967175</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114330.3856078229</v>
+        <v>12185461.46189626</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122372.1119288585</v>
+        <v>13035540.96412077</v>
       </c>
     </row>
   </sheetData>
